--- a/fundamental_analysis3/files/2021-08-22_scores.xlsx
+++ b/fundamental_analysis3/files/2021-08-22_scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\machine_learning\machine_learning\fundamental_analysis3\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\fundamental_analysis3\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871D5FD-F2D2-4C21-9A26-6EAF7E7DDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695DA1C8-D1A9-41CE-93BF-A1F98FBAA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
